--- a/Data/aearep-1184/candidatepackages.xlsx
+++ b/Data/aearep-1184/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,54 +22,24 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>table1</t>
   </si>
   <si>
     <t>grqreg</t>
   </si>
   <si>
-    <t>lassopack</t>
-  </si>
-  <si>
     <t>texsave</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>outtable</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>adjust</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>varlab</t>
   </si>
   <si>
@@ -94,31 +64,13 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1184</t>
-  </si>
-  <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1184/120311</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1184/120311/dofile</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1184/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>TeachingLaborLawsDofileAEJ_2020_09.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -162,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -170,13 +122,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -196,7 +148,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -208,7 +160,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -220,7 +172,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -232,7 +184,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -244,10 +196,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>128</v>
+        <v>499</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D7"/>
     </row>
@@ -256,10 +208,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>191</v>
+        <v>1796</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D8"/>
     </row>
@@ -268,10 +220,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>267</v>
+        <v>2084</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.68892562389373779</v>
       </c>
       <c r="D9"/>
     </row>
@@ -280,10 +232,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>279</v>
+        <v>2278</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.75305783748626709</v>
       </c>
       <c r="D10"/>
     </row>
@@ -292,10 +244,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>297</v>
+        <v>2436</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D11"/>
     </row>
@@ -304,132 +256,12 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>565</v>
+        <v>2977</v>
       </c>
       <c r="C12">
-        <v>0.18733422458171844</v>
+        <v>0.98413223028182983</v>
       </c>
       <c r="D12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>985</v>
-      </c>
-      <c r="C13">
-        <v>0.32659152150154114</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1124</v>
-      </c>
-      <c r="C14">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1793</v>
-      </c>
-      <c r="C15">
-        <v>0.59449601173400879</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1798</v>
-      </c>
-      <c r="C16">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1817</v>
-      </c>
-      <c r="C17">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1859</v>
-      </c>
-      <c r="C18">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2148</v>
-      </c>
-      <c r="C19">
-        <v>0.71220159530639648</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2207</v>
-      </c>
-      <c r="C20">
-        <v>0.73176389932632446</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2424</v>
-      </c>
-      <c r="C21">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>2989</v>
-      </c>
-      <c r="C22">
-        <v>0.99104773998260498</v>
-      </c>
-      <c r="D22"/>
     </row>
   </sheetData>
 </worksheet>
@@ -437,47 +269,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
